--- a/tab/pairwise_permutation_den.xlsx
+++ b/tab/pairwise_permutation_den.xlsx
@@ -409,19 +409,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.173647912601381</v>
+        <v>0.2254762463528089</v>
       </c>
       <c r="D2">
-        <v>0.1175011960895909</v>
+        <v>0.1583347574257391</v>
       </c>
       <c r="E2">
-        <v>1.33146011721416</v>
+        <v>1.881208221708989</v>
       </c>
       <c r="F2">
-        <v>0.247</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>1.482</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +434,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1.304191619082875</v>
+        <v>1.198571448661724</v>
       </c>
       <c r="D3">
-        <v>0.8824988039104093</v>
+        <v>0.8416652425742611</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +450,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1.477839531684256</v>
+        <v>1.424047695014533</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -516,19 +516,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4020165670299738</v>
+        <v>0.5489519651667446</v>
       </c>
       <c r="D2">
-        <v>0.1390559267109761</v>
+        <v>0.1859102810492951</v>
       </c>
       <c r="E2">
-        <v>3.230312653869544</v>
+        <v>4.567316764273063</v>
       </c>
       <c r="F2">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G2">
-        <v>0.018</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="3">
@@ -541,10 +541,10 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>2.489025739031199</v>
+        <v>2.403826988575933</v>
       </c>
       <c r="D3">
-        <v>0.8609440732890239</v>
+        <v>0.8140897189507049</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>2.891042306061173</v>
+        <v>2.952778953742677</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -623,13 +623,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.6448781204028785</v>
+        <v>0.771515070028395</v>
       </c>
       <c r="D2">
-        <v>0.1588865493664814</v>
+        <v>0.1847481982165203</v>
       </c>
       <c r="E2">
-        <v>4.911406755434775</v>
+        <v>5.891987166567786</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -648,10 +648,10 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>3.413855126521807</v>
+        <v>3.4045206232897</v>
       </c>
       <c r="D3">
-        <v>0.8411134506335185</v>
+        <v>0.8152518017834797</v>
       </c>
     </row>
     <row r="4">
@@ -664,7 +664,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>4.058733246924686</v>
+        <v>4.176035693318095</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -730,19 +730,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1599586102526496</v>
+        <v>0.1884633653005247</v>
       </c>
       <c r="D2">
-        <v>0.06299304305332586</v>
+        <v>0.07376212228435325</v>
       </c>
       <c r="E2">
-        <v>1.344558705489117</v>
+        <v>1.59272523957389</v>
       </c>
       <c r="F2">
-        <v>0.22</v>
+        <v>0.115</v>
       </c>
       <c r="G2">
-        <v>1.32</v>
+        <v>0.6900000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>2.379347359094456</v>
+        <v>2.366552128613787</v>
       </c>
       <c r="D3">
-        <v>0.937006956946674</v>
+        <v>0.9262378777156468</v>
       </c>
     </row>
     <row r="4">
@@ -771,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>2.539305969347106</v>
+        <v>2.555015493914312</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -837,19 +837,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2011410283297263</v>
+        <v>0.2089748991269166</v>
       </c>
       <c r="D2">
-        <v>0.05738168156084387</v>
+        <v>0.05843456510412605</v>
       </c>
       <c r="E2">
-        <v>1.582744246952847</v>
+        <v>1.613588006101025</v>
       </c>
       <c r="F2">
-        <v>0.127</v>
+        <v>0.11</v>
       </c>
       <c r="G2">
-        <v>0.762</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +862,10 @@
         <v>26</v>
       </c>
       <c r="C3">
-        <v>3.304176746585064</v>
+        <v>3.367245763327554</v>
       </c>
       <c r="D3">
-        <v>0.942618318439156</v>
+        <v>0.9415654348958739</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>3.505317774914791</v>
+        <v>3.576220662454471</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -944,13 +944,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3276981548141068</v>
+        <v>0.3401990296627217</v>
       </c>
       <c r="D2">
-        <v>0.06803362074847356</v>
+        <v>0.06924888688693727</v>
       </c>
       <c r="E2">
-        <v>2.628002899538114</v>
+        <v>2.678438835911346</v>
       </c>
       <c r="F2">
         <v>0.002</v>
@@ -969,10 +969,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>4.489010866533388</v>
+        <v>4.572501303241763</v>
       </c>
       <c r="D3">
-        <v>0.9319663792515264</v>
+        <v>0.9307511131130628</v>
       </c>
     </row>
     <row r="4">
@@ -985,7 +985,7 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <v>4.816709021347495</v>
+        <v>4.912700332904485</v>
       </c>
       <c r="D4">
         <v>1</v>
